--- a/docentes/Jimenez Nieto Enrique - Estadisticos 2020.xlsx
+++ b/docentes/Jimenez Nieto Enrique - Estadisticos 2020.xlsx
@@ -1120,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1166,7 +1166,7 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1189,7 +1189,7 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1212,7 +1212,7 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1235,7 +1235,7 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Jimenez Nieto Enrique - Estadisticos 2020.xlsx
+++ b/docentes/Jimenez Nieto Enrique - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>Mat</t>
   </si>
@@ -85,55 +85,49 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>ESPIRITU</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>PIEDRAS</t>
-  </si>
-  <si>
-    <t>DOLORES</t>
-  </si>
-  <si>
-    <t>BUSTAMANTE</t>
-  </si>
-  <si>
-    <t>MONTERROSAS</t>
-  </si>
-  <si>
-    <t>YAEL</t>
-  </si>
-  <si>
-    <t>MARTHA MARISOL</t>
-  </si>
-  <si>
-    <t>JOEL EDUARDO</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>DANIEL</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL</t>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>LOMAN</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>COTLAME</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>MARY ESTEFANY</t>
+  </si>
+  <si>
+    <t>MARIA CELESTE</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>MARIA INGRID</t>
+  </si>
+  <si>
+    <t>ELTHON ALAIN</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1102,22 +1096,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920110</v>
+        <v>18330051920360</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1125,22 +1119,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920311</v>
+        <v>18330051920362</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1148,22 +1142,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920248</v>
+        <v>18330051920372</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1171,22 +1165,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920116</v>
+        <v>18330051920373</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1194,48 +1188,25 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920455</v>
+        <v>18330051920375</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6">
         <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920220</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Jimenez Nieto Enrique - Estadisticos 2020.xlsx
+++ b/docentes/Jimenez Nieto Enrique - Estadisticos 2020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="174">
   <si>
     <t>Mat</t>
   </si>
@@ -85,27 +85,258 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>DE GANTE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TEMOXTLE</t>
+  </si>
+  <si>
+    <t>VALDES</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>BAEZ</t>
+  </si>
+  <si>
+    <t>CERONIO</t>
+  </si>
+  <si>
+    <t>CRESCENCIO</t>
+  </si>
+  <si>
+    <t>GIRON</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MAYAHUA</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>TELE</t>
+  </si>
+  <si>
+    <t>TEHUINTLE</t>
+  </si>
+  <si>
+    <t>URBINA</t>
+  </si>
+  <si>
+    <t>YOPIHUA</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>ESPIRITU</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>LIBONATTI</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>BALVIN</t>
+  </si>
+  <si>
+    <t>CASANOVA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GALINDO</t>
   </si>
   <si>
     <t>JIMENEZ</t>
   </si>
   <si>
+    <t>LORENZO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>MOLOHUA</t>
+  </si>
+  <si>
+    <t>PERALTA</t>
+  </si>
+  <si>
+    <t>PEÑA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANDOVAL</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>BARRAGAN</t>
+  </si>
+  <si>
+    <t>CABELLO</t>
+  </si>
+  <si>
     <t>LOMAN</t>
   </si>
   <si>
-    <t>PERALTA</t>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
+    <t>GARATE</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>MARIN</t>
+  </si>
+  <si>
+    <t>PIEDRAS</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MATEOS</t>
+  </si>
+  <si>
+    <t>MONTES</t>
+  </si>
+  <si>
+    <t>CUEVAS</t>
+  </si>
+  <si>
+    <t>ISIDRO</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>TREJO</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>IXMATLAHUA</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>ARENAS</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE</t>
+  </si>
+  <si>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>ELIAS</t>
+  </si>
+  <si>
+    <t>MONTERROSAS</t>
+  </si>
+  <si>
+    <t>CONTRERAS</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>PIMENTEL</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>CARRERA</t>
+  </si>
+  <si>
+    <t>LLANOS</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>OYOLA</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>CERON</t>
   </si>
   <si>
     <t>GUZMAN</t>
   </si>
   <si>
-    <t>MORALES</t>
-  </si>
-  <si>
     <t>COTLAME</t>
   </si>
   <si>
@@ -115,19 +346,199 @@
     <t>SOLANO</t>
   </si>
   <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>DANIELA</t>
+  </si>
+  <si>
+    <t>YAIRA GUADALUPE</t>
+  </si>
+  <si>
+    <t>MADAI</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>MARTHA MARISOL</t>
+  </si>
+  <si>
+    <t>ADALI</t>
+  </si>
+  <si>
+    <t>MIRIAM AMERICA</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL</t>
+  </si>
+  <si>
+    <t>MARI CARMEN</t>
+  </si>
+  <si>
+    <t>JESUS ALFONSO</t>
+  </si>
+  <si>
+    <t>MARIA FERNANDA</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>EMIR ANDRES</t>
+  </si>
+  <si>
+    <t>ELIZABETH</t>
+  </si>
+  <si>
+    <t>LUZ GUADALUPE</t>
+  </si>
+  <si>
+    <t>PAMELA DENISSE</t>
+  </si>
+  <si>
+    <t>SAHARA DE JESUS</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>ARACELI</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>AMAYRANI</t>
+  </si>
+  <si>
+    <t>PATRICIA MARLENE</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL</t>
+  </si>
+  <si>
+    <t>JOSUA</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>ARELY</t>
+  </si>
+  <si>
+    <t>ANGEL RODRIGO</t>
+  </si>
+  <si>
+    <t>EBERTH JUVIEL</t>
+  </si>
+  <si>
+    <t>JORGE ANTONIO</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>YESENIA</t>
+  </si>
+  <si>
+    <t>JOSELYN</t>
+  </si>
+  <si>
+    <t>JULIAN</t>
+  </si>
+  <si>
+    <t>CRISTAL</t>
+  </si>
+  <si>
+    <t>JULIANA</t>
+  </si>
+  <si>
+    <t>DENISS IRIANI</t>
+  </si>
+  <si>
+    <t>DIANA LAURA</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>MARIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>XIMENA</t>
+  </si>
+  <si>
+    <t>MARIA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>MELISSA</t>
+  </si>
+  <si>
+    <t>REY DAVID</t>
+  </si>
+  <si>
+    <t>ROSA ANDREA</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>NAYDELIN FERNANDA</t>
+  </si>
+  <si>
+    <t>NURIA SARAY</t>
+  </si>
+  <si>
+    <t>ARIADNA JOCELYN</t>
+  </si>
+  <si>
+    <t>MAGDALENA</t>
+  </si>
+  <si>
+    <t>CLARA</t>
+  </si>
+  <si>
+    <t>TANIA</t>
+  </si>
+  <si>
+    <t>KAROL</t>
+  </si>
+  <si>
+    <t>MONTSERRAT</t>
+  </si>
+  <si>
+    <t>MELANI DARIANA</t>
+  </si>
+  <si>
+    <t>MARINA IVETH</t>
+  </si>
+  <si>
     <t>MARY ESTEFANY</t>
   </si>
   <si>
     <t>MARIA CELESTE</t>
   </si>
   <si>
-    <t>JULIAN</t>
-  </si>
-  <si>
     <t>MARIA INGRID</t>
   </si>
   <si>
     <t>ELTHON ALAIN</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>ARIDETH</t>
+  </si>
+  <si>
+    <t>DEMIAN JESUS</t>
   </si>
 </sst>
 </file>
@@ -1061,7 +1472,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1096,22 +1507,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920360</v>
+        <v>18330051920261</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1119,22 +1530,22 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>18330051920362</v>
+        <v>18330051920302</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -1142,22 +1553,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>18330051920372</v>
+        <v>18330051920306</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -1165,22 +1576,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>18330051920373</v>
+        <v>18330051920308</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1188,25 +1599,1451 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>18330051920375</v>
+        <v>18330051920311</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>18330051920224</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>18330051920226</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>18330051920220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>17330051420363</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>18330051920228</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>18330051920240</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>18330051920244</v>
+      </c>
+      <c r="B13" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>18330051920246</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>18330061460060</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18330051920250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>17330051920302</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>18330051920256</v>
+      </c>
+      <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18330051920274</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>18330051920305</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>18330051920283</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>18330051920286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>18330051920289</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>18330051920292</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>18330051920357</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
         <v>13</v>
       </c>
-      <c r="G6">
-        <v>2</v>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>18330051920440</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>18330051920366</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>18330051920116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>18330051920120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>18330051920121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>18330051920125</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>17330051920466</v>
+      </c>
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>18330051920455</v>
+      </c>
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>18330051920239</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>18330051920236</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>18330051920241</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>18330051920251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>18330051920263</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>18330051920255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>18330051920258</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>18330051920268</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>18330051920271</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" t="s">
+        <v>149</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>18330051920279</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>18330051920282</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>151</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>18330051920287</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>18330051920293</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" t="s">
+        <v>153</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>18330051920291</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>18330051920295</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>18330051920294</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>18330051920296</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>18330051920298</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>18330051920297</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" t="s">
+        <v>158</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>18330051920299</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>18330051920303</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>18330051920301</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>18330051920304</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>18330051920310</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>18330051920312</v>
+      </c>
+      <c r="B58" t="s">
+        <v>26</v>
+      </c>
+      <c r="C58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>18330051920354</v>
+      </c>
+      <c r="B59" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>18330051920358</v>
+      </c>
+      <c r="B60" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>18330051920360</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>105</v>
+      </c>
+      <c r="D61" t="s">
+        <v>167</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>18330051920362</v>
+      </c>
+      <c r="B62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
+        <v>168</v>
+      </c>
+      <c r="E62" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>18330051920372</v>
+      </c>
+      <c r="B63" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>18330051920373</v>
+      </c>
+      <c r="B64" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" t="s">
+        <v>107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>18330051920375</v>
+      </c>
+      <c r="B65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>18330051920115</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" t="s">
+        <v>171</v>
+      </c>
+      <c r="E66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>18330051920118</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" t="s">
+        <v>172</v>
+      </c>
+      <c r="E67" t="s">
+        <v>9</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>18330051920119</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" t="s">
+        <v>173</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
